--- a/misc/gptrag_resources_and_permissions.xlsx
+++ b/misc/gptrag_resources_and_permissions.xlsx
@@ -8,23 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\paulo\workspace\gpt-rag\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D26AA3-E75F-477B-A324-862144F97079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE66656D-87FD-4B8A-A97A-2545F3DC2C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" tabRatio="351" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Permissions" sheetId="2" r:id="rId1"/>
-    <sheet name="Resources" sheetId="1" r:id="rId2"/>
-    <sheet name="AOAI Deployments" sheetId="6" r:id="rId3"/>
-    <sheet name="Containers" sheetId="5" r:id="rId4"/>
-    <sheet name="App Registrations" sheetId="3" r:id="rId5"/>
+    <sheet name="App Registrations" sheetId="3" r:id="rId2"/>
+    <sheet name="Resources" sheetId="1" r:id="rId3"/>
+    <sheet name="AOAI Deployments" sheetId="6" r:id="rId4"/>
+    <sheet name="Containers" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="215">
   <si>
     <t>Resource Type</t>
   </si>
@@ -612,9 +612,6 @@
     <t>Read secrets from Key Vault when needed (for connectors using app registration secrets).</t>
   </si>
   <si>
-    <t>Ler segredos no key vault quando necessario (app registration secrets usado por conectores).</t>
-  </si>
-  <si>
     <t>Read function keys and invoke Function Apps.</t>
   </si>
   <si>
@@ -667,6 +664,12 @@
   </si>
   <si>
     <t>Infra team (who will provision resources)</t>
+  </si>
+  <si>
+    <t>Read secrets from Key Vault when needed  (app registration secrets usado por conectores).</t>
+  </si>
+  <si>
+    <t>Read secrets from Key Vault when needed (for app registration secret used to configure web app EntraId authentication).</t>
   </si>
 </sst>
 </file>
@@ -772,7 +775,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -831,8 +834,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1141,10 +1142,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1332,7 +1333,7 @@
         <v>93</v>
       </c>
       <c r="E11" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1354,73 +1355,73 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>176</v>
+        <v>61</v>
       </c>
       <c r="D13" s="21" t="s">
         <v>94</v>
       </c>
       <c r="E13" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="B14" t="s">
-        <v>184</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>176</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E14" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B15" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B16" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E16" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>104</v>
       </c>
@@ -1428,16 +1429,16 @@
         <v>182</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E17" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>104</v>
       </c>
@@ -1448,13 +1449,13 @@
         <v>63</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E18" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
         <v>104</v>
       </c>
@@ -1465,210 +1466,190 @@
         <v>63</v>
       </c>
       <c r="D19" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" t="s">
+        <v>182</v>
+      </c>
+      <c r="C20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E20" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" t="s">
+        <v>212</v>
+      </c>
+      <c r="E22" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>213</v>
-      </c>
-      <c r="E21" s="22" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>176</v>
+      </c>
+      <c r="D23" t="s">
+        <v>211</v>
+      </c>
+      <c r="E23" t="s">
         <v>202</v>
       </c>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="E22" s="22" t="s">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24" t="s">
+        <v>182</v>
+      </c>
+      <c r="C24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" t="s">
+        <v>211</v>
+      </c>
+      <c r="E24" t="s">
         <v>203</v>
       </c>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="E23" s="22" t="s">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" t="s">
+        <v>177</v>
+      </c>
+      <c r="D25" t="s">
+        <v>211</v>
+      </c>
+      <c r="E25" t="s">
         <v>204</v>
       </c>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="E24" s="22" t="s">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" t="s">
+        <v>209</v>
+      </c>
+      <c r="D26" t="s">
+        <v>211</v>
+      </c>
+      <c r="E26" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" t="s">
+        <v>211</v>
+      </c>
+      <c r="E27" t="s">
         <v>205</v>
       </c>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="E25" s="22" t="s">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" t="s">
         <v>211</v>
       </c>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="E26" s="22" t="s">
+      <c r="E28" t="s">
         <v>206</v>
       </c>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="E27" s="22" t="s">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" t="s">
+        <v>211</v>
+      </c>
+      <c r="E29" t="s">
         <v>207</v>
       </c>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="B28" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="E28" s="22" t="s">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" t="s">
+        <v>181</v>
+      </c>
+      <c r="D30" t="s">
+        <v>211</v>
+      </c>
+      <c r="E30" t="s">
         <v>208</v>
       </c>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1676,6 +1657,224 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="105.42578125" style="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="20"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="11"/>
+    </row>
+    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="11"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E28"/>
   <sheetViews>
@@ -1713,7 +1912,7 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="23" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="21" t="s">
@@ -1727,7 +1926,7 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="23" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="21" t="s">
@@ -2155,7 +2354,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A0EBD7B-CF53-45FD-AF07-15F03EE930D4}">
   <dimension ref="A1:H3"/>
   <sheetViews>
@@ -2207,10 +2406,10 @@
       <c r="B2" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="22" t="s">
         <v>143</v>
       </c>
       <c r="E2" s="10" t="s">
@@ -2233,10 +2432,10 @@
       <c r="B3" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="22" t="s">
         <v>148</v>
       </c>
       <c r="E3" s="10" t="s">
@@ -2257,7 +2456,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10F06C16-9524-46F3-BA10-A656CF5788D7}">
   <dimension ref="A1:D10"/>
   <sheetViews>
@@ -2289,7 +2488,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="22" t="s">
         <v>104</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -2303,7 +2502,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="22" t="s">
         <v>104</v>
       </c>
       <c r="B3" s="10" t="s">
@@ -2317,7 +2516,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="22" t="s">
         <v>104</v>
       </c>
       <c r="B4" s="10" t="s">
@@ -2331,7 +2530,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="22" t="s">
         <v>103</v>
       </c>
       <c r="B5" s="10" t="s">
@@ -2345,7 +2544,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="22" t="s">
         <v>103</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -2359,7 +2558,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="22" t="s">
         <v>102</v>
       </c>
       <c r="B7" s="10" t="s">
@@ -2373,7 +2572,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="22" t="s">
         <v>102</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -2387,7 +2586,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="22" t="s">
         <v>102</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -2401,7 +2600,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="22" t="s">
         <v>102</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -2416,224 +2615,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E17"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="105.42578125" style="10" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="20"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="B4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="B5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="B6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="B8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" t="s">
-        <v>121</v>
-      </c>
-      <c r="D8" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="11"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="B11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11" t="s">
-        <v>80</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="11"/>
-    </row>
-    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="B14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" t="s">
-        <v>86</v>
-      </c>
-      <c r="D14" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="11"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="B17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" t="s">
-        <v>87</v>
-      </c>
-      <c r="D17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 

--- a/misc/gptrag_resources_and_permissions.xlsx
+++ b/misc/gptrag_resources_and_permissions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\paulo\workspace\gpt-rag\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE66656D-87FD-4B8A-A97A-2545F3DC2C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E15CC581-7594-45BC-9A9A-E254CF6197C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" tabRatio="351" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1145,7 +1145,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1304,7 +1304,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B10" t="s">
         <v>60</v>
